--- a/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts12_clu.xlsx
+++ b/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts12_clu.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE339C1A-FB74-407E-838D-03C18DFEA1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3ABCE18-2EC2-49A7-9A67-376567B2A360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="2" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
     <sheet name="customize" sheetId="10" r:id="rId2"/>
     <sheet name="timeslice_def" sheetId="11" r:id="rId3"/>
+    <sheet name="re_profiles" sheetId="12" r:id="rId4"/>
+    <sheet name="load_shapes" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="118">
   <si>
     <t>UC_N</t>
   </si>
@@ -76,24 +78,6 @@
     <t>day</t>
   </si>
   <si>
-    <t>daynight</t>
-  </si>
-  <si>
-    <t>TimeSlices</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</t>
-  </si>
-  <si>
-    <t>Night</t>
-  </si>
-  <si>
-    <t>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</t>
-  </si>
-  <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
   <si>
@@ -311,13 +295,116 @@
   </si>
   <si>
     <t>~TimeSlices</t>
+  </si>
+  <si>
+    <t>~TFM_DINS-AT</t>
+  </si>
+  <si>
+    <t>com_fr</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>S1aH1</t>
+  </si>
+  <si>
+    <t>IMPNRGZ</t>
+  </si>
+  <si>
+    <t>elc_spv-DEU</t>
+  </si>
+  <si>
+    <t>S1aH2</t>
+  </si>
+  <si>
+    <t>S1aH3</t>
+  </si>
+  <si>
+    <t>S1aH4</t>
+  </si>
+  <si>
+    <t>S2aH1</t>
+  </si>
+  <si>
+    <t>S2aH2</t>
+  </si>
+  <si>
+    <t>S2aH3</t>
+  </si>
+  <si>
+    <t>S2aH4</t>
+  </si>
+  <si>
+    <t>S3aH1</t>
+  </si>
+  <si>
+    <t>S3aH2</t>
+  </si>
+  <si>
+    <t>S3aH3</t>
+  </si>
+  <si>
+    <t>S3aH4</t>
+  </si>
+  <si>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
+  </si>
+  <si>
+    <t>elc_won-DEU</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU</t>
+  </si>
+  <si>
+    <t>g_yrfr</t>
+  </si>
+  <si>
+    <t>elc_roadtransport</t>
+  </si>
+  <si>
+    <t>day_night</t>
+  </si>
+  <si>
+    <t>S1aH2,S2aH3,S1aH3,S2aH2,S3aH2,S3aH3</t>
+  </si>
+  <si>
+    <t>S2aH4,S3aH1,S2aH1,S1aH4,S1aH1,S3aH4</t>
+  </si>
+  <si>
+    <t>elc_buildings</t>
+  </si>
+  <si>
+    <t>elc_industry</t>
+  </si>
+  <si>
+    <t>com_pkflx</t>
+  </si>
+  <si>
+    <t>~TFM_INS-AT</t>
+  </si>
+  <si>
+    <t>ncap_afs</t>
+  </si>
+  <si>
+    <t>pset_ci</t>
+  </si>
+  <si>
+    <t>hydro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,8 +458,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7"/>
+      <color rgb="FF969696"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,8 +509,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19375F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -437,6 +569,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -448,7 +610,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -464,6 +626,22 @@
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="7" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
@@ -486,6 +664,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>296863</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C85885B8-6655-6547-F9F7-DCBFD1353386}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -803,7 +1036,7 @@
     </row>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
@@ -824,7 +1057,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>2</v>
@@ -839,7 +1072,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
@@ -847,21 +1080,21 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D7" t="str">
         <f>F7</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</v>
+        <v>S2aH4,S3aH1,S2aH1,S1aH4,S1aH1,S3aH4</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -879,21 +1112,21 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D8" t="str">
         <f>F8</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</v>
+        <v>S1aH2,S2aH3,S1aH3,S2aH2,S3aH2,S3aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -905,26 +1138,26 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -952,551 +1185,551 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="C36" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C52" s="5"/>
     </row>
@@ -1506,80 +1739,1245 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5ADE44-F0B1-4F45-BD64-C3AE89E5F985}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB759613-494E-4E5C-B476-EC3199682575}">
   <dimension ref="B2:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481E098B-2B51-4ACA-AE6C-9A4592B31F64}">
+  <dimension ref="A1:R22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="4" width="10.59765625" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.59765625" customWidth="1"/>
+    <col min="11" max="11" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="10.59765625" customWidth="1"/>
+    <col min="18" max="18" width="10.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="M2" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="M3" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="M4" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" s="22">
+        <v>0.16560240645944377</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="M5" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="24">
+        <v>0.95029816876880036</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="M6" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="N6" s="22">
+        <v>8.4099424771755762E-2</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B11" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="14">
+        <v>7.6316141044970143E-2</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0.22171763549879184</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" s="17">
+        <v>1054.6815478022845</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B12" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="16">
+        <v>6.1108506547704639E-2</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="16">
+        <v>2.6366397212080089E-2</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P12" s="18">
+        <v>130.12874369322392</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="R12" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B13" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0.58583648154629731</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0.18917595150823799</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="17">
+        <v>939.76206666708583</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="R13" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B14" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0.15182603228554986</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0.22714365651295931</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="18">
+        <v>1107.3322502269489</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="R14" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="14">
+        <v>1.8966108330497554E-3</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="14">
+        <v>6.9862847461759456E-2</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="P15" s="17">
+        <v>325.56029944037948</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B16" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="16">
+        <v>5.1488573574606008E-3</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" s="16">
+        <v>8.6516806360859098E-3</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="P16" s="18">
+        <v>39.835401677192912</v>
+      </c>
+      <c r="Q16" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="R16" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B17" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="14">
+        <v>7.6297274593462264E-2</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" s="14">
+        <v>5.6515711626693527E-2</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="P17" s="17">
+        <v>263.21808273630722</v>
+      </c>
+      <c r="Q17" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B18" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="16">
+        <v>8.2498194922676037E-3</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" s="16">
+        <v>6.8102402655022085E-2</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18" s="18">
+        <v>316.53881921780885</v>
+      </c>
+      <c r="Q18" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="R18" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B19" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" s="14">
+        <v>4.4111963877289356E-2</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="P19" s="17">
+        <v>193.08828603826066</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="R19" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B20" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="16">
+        <v>1.0272097371431923E-3</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" s="16">
+        <v>5.7849962600277742E-3</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20" s="18">
+        <v>23.958707950812247</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="R20" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B21" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="14">
+        <v>3.1282659105564783E-2</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I21" s="14">
+        <v>3.8357949136617581E-2</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="P21" s="17">
+        <v>169.91626083931291</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B22" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="16">
+        <v>1.0104074563618622E-3</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" s="16">
+        <v>4.4208807614221843E-2</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="P22" s="18">
+        <v>191.4949601512603</v>
+      </c>
+      <c r="Q22" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="R22" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892D75AF-2E02-4E00-BEDB-5EA7182A41A1}">
+  <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+      <c r="H2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" t="s">
-        <v>82</v>
+        <v>88</v>
+      </c>
+      <c r="H3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>0.24931506849315069</v>
+      </c>
+      <c r="C4">
+        <v>0.13818660965119461</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>85</v>
+        <v>107</v>
+      </c>
+      <c r="H4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4">
+        <v>0.2003213339421451</v>
+      </c>
+      <c r="M4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" t="s">
+        <v>89</v>
+      </c>
+      <c r="O4">
+        <v>0.46785169922331682</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>3.1164383561643836E-2</v>
+      </c>
+      <c r="C5">
+        <v>3.9818014568779071E-2</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>87</v>
+        <v>92</v>
+      </c>
+      <c r="E5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5">
+        <v>3.5901739152849582E-2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O5">
+        <v>0.22491251713067584</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>0.21815068493150686</v>
+      </c>
+      <c r="C6">
+        <v>0.28397484026551978</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+      <c r="E6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6">
+        <v>0.25114245655400896</v>
+      </c>
+      <c r="M6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" t="s">
+        <v>93</v>
+      </c>
+      <c r="O6">
+        <v>0.22165444791480216</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>0.24931506849315069</v>
+      </c>
+      <c r="C7">
+        <v>0.28596574099395872</v>
+      </c>
       <c r="D7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7">
+        <v>0.25849999795517992</v>
+      </c>
+      <c r="M7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7">
+        <v>0.31388903513288224</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>5.5707762557077628E-2</v>
+      </c>
+      <c r="C8">
+        <v>3.0876861497153366E-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8">
+        <v>4.3487016223008844E-2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8">
+        <v>0.33729701496143316</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>6.9634703196347035E-3</v>
+      </c>
+      <c r="C9">
+        <v>8.8970655263572278E-3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9">
+        <v>7.8025678240701921E-3</v>
+      </c>
+      <c r="M9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9">
+        <v>0.13475836350908721</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>4.8744292237442921E-2</v>
+      </c>
+      <c r="C10">
+        <v>6.3452253685702203E-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10">
+        <v>5.4236921511738014E-2</v>
+      </c>
+      <c r="M10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10">
+        <v>0.14931939789753557</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>5.5707762557077628E-2</v>
+      </c>
+      <c r="C11">
+        <v>6.3897106962020084E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11">
+        <v>5.6504104916096538E-2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11">
+        <v>0.21589092123869102</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>2.8310502283105023E-2</v>
+      </c>
+      <c r="C12">
+        <v>1.5691519777241876E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12">
+        <v>2.4942998885035525E-2</v>
+      </c>
+      <c r="M12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" t="s">
+        <v>99</v>
+      </c>
+      <c r="O12">
+        <v>0.26445797953675454</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>3.5388127853881279E-3</v>
+      </c>
+      <c r="C13">
+        <v>4.521459529788099E-3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" t="s">
+        <v>111</v>
+      </c>
+      <c r="I13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <v>4.3968656823916716E-3</v>
+      </c>
+      <c r="M13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13" t="s">
+        <v>100</v>
+      </c>
+      <c r="O13">
+        <v>6.750385296878858E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>2.4771689497716895E-2</v>
+      </c>
+      <c r="C14">
+        <v>3.2246227282897846E-2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14">
+        <v>3.0675490343048433E-2</v>
+      </c>
+      <c r="M14" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" t="s">
+        <v>101</v>
+      </c>
+      <c r="O14">
+        <v>8.5594267559709225E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>2.8310502283105023E-2</v>
+      </c>
+      <c r="C15">
+        <v>3.2472300259387257E-2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15">
+        <v>3.2088507010427245E-2</v>
+      </c>
+      <c r="M15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15" t="s">
+        <v>102</v>
+      </c>
+      <c r="O15">
+        <v>0.14741365757121838</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H16" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" t="s">
         <v>89</v>
       </c>
-      <c r="F7" t="s">
-        <v>82</v>
+      <c r="J16">
+        <v>0.24660293540907907</v>
+      </c>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H17" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J17">
+        <v>3.1434420249626061E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18">
+        <v>0.22003142498376535</v>
+      </c>
+    </row>
+    <row r="19" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H19" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19">
+        <v>0.24986525391468759</v>
+      </c>
+    </row>
+    <row r="20" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H20" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20">
+        <v>5.5108565505625429E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H21" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" t="s">
+        <v>96</v>
+      </c>
+      <c r="J21">
+        <v>7.021280837404051E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H22" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22">
+        <v>4.9127598628458231E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H23" t="s">
+        <v>112</v>
+      </c>
+      <c r="I23" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23">
+        <v>5.5838487549264883E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I24" t="s">
+        <v>99</v>
+      </c>
+      <c r="J24">
+        <v>2.8000453240712094E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H25" t="s">
+        <v>112</v>
+      </c>
+      <c r="I25" t="s">
+        <v>100</v>
+      </c>
+      <c r="J25">
+        <v>3.571774964491983E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H26" t="s">
+        <v>112</v>
+      </c>
+      <c r="I26" t="s">
+        <v>101</v>
+      </c>
+      <c r="J26">
+        <v>2.4996673258739058E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H27" t="s">
+        <v>112</v>
+      </c>
+      <c r="I27" t="s">
+        <v>102</v>
+      </c>
+      <c r="J27">
+        <v>2.8401131458146212E-2</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts12_clu.xlsx
+++ b/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts12_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3ABCE18-2EC2-49A7-9A67-376567B2A360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{776B70DD-7588-478F-A287-AD22D0751AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -369,10 +369,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH2,S2aH3,S1aH3,S2aH2,S3aH2,S3aH3</t>
-  </si>
-  <si>
-    <t>S2aH4,S3aH1,S2aH1,S1aH4,S1aH1,S3aH4</t>
+    <t>S3aH2,S1aH3,S3aH3,S2aH2,S1aH2,S2aH3</t>
+  </si>
+  <si>
+    <t>S2aH4,S2aH1,S1aH4,S1aH1,S3aH4,S3aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -677,7 +677,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>296863</xdr:colOff>
+      <xdr:colOff>296862</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
@@ -686,7 +686,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C85885B8-6655-6547-F9F7-DCBFD1353386}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68CAE522-8C10-8094-4577-6690CD02CD9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH4,S3aH1,S2aH1,S1aH4,S1aH1,S3aH4</v>
+        <v>S2aH4,S2aH1,S1aH4,S1aH1,S3aH4,S3aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S2aH3,S1aH3,S2aH2,S3aH2,S3aH3</v>
+        <v>S3aH2,S1aH3,S3aH3,S2aH2,S1aH2,S2aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1739,7 +1739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB759613-494E-4E5C-B476-EC3199682575}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6991D6-E039-4361-8B00-73D87F091B97}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1821,8 +1821,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481E098B-2B51-4ACA-AE6C-9A4592B31F64}">
-  <dimension ref="A1:R22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78BAB0DD-0AAD-4A2C-8F71-88EA58A11301}">
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -1832,13 +1832,14 @@
   <cols>
     <col min="2" max="4" width="10.59765625" customWidth="1"/>
     <col min="5" max="5" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.59765625" customWidth="1"/>
-    <col min="11" max="11" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="10.59765625" customWidth="1"/>
-    <col min="18" max="18" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.59765625" customWidth="1"/>
+    <col min="10" max="10" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="10.59765625" customWidth="1"/>
+    <col min="15" max="15" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="19" t="s">
         <v>103</v>
       </c>
@@ -1850,67 +1851,21 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
     </row>
-    <row r="2" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="M2" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="M3" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="O3" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="M4" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="N4" s="22">
-        <v>0.16560240645944377</v>
-      </c>
-      <c r="O4" s="21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="M5" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="N5" s="24">
-        <v>0.95029816876880036</v>
-      </c>
-      <c r="O5" s="23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="M6" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="N6" s="22">
-        <v>8.4099424771755762E-2</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="L9" s="11" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q9" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="12" t="s">
         <v>69</v>
       </c>
@@ -1923,32 +1878,41 @@
       <c r="E10" s="12" t="s">
         <v>88</v>
       </c>
+      <c r="G10" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="H10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="M10" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="N10" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="O10" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="Q10" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="P10" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q10" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="R10" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="R10" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="S10" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B11" s="13" t="s">
         <v>89</v>
       </c>
@@ -1961,32 +1925,41 @@
       <c r="E11" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="G11" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="14">
+      <c r="H11" s="14">
         <v>0.22171763549879184</v>
       </c>
+      <c r="I11" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="J11" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="K11" s="13" t="s">
         <v>104</v>
       </c>
+      <c r="L11" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11" s="17">
+        <v>1054.6815478022845</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="O11" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="P11" s="17">
-        <v>1054.6815478022845</v>
-      </c>
-      <c r="Q11" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="R11" s="13" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Q11" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="R11" s="22">
+        <v>8.4099424771755762E-2</v>
+      </c>
+      <c r="S11" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B12" s="15" t="s">
         <v>92</v>
       </c>
@@ -1999,32 +1972,41 @@
       <c r="E12" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="G12" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="16">
+      <c r="H12" s="16">
         <v>2.6366397212080089E-2</v>
       </c>
+      <c r="I12" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="J12" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="K12" s="15" t="s">
         <v>104</v>
       </c>
+      <c r="L12" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" s="18">
+        <v>130.12874369322392</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="O12" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="P12" s="18">
-        <v>130.12874369322392</v>
-      </c>
-      <c r="Q12" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="R12" s="15" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Q12" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="R12" s="24">
+        <v>0.95029816876880024</v>
+      </c>
+      <c r="S12" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B13" s="13" t="s">
         <v>93</v>
       </c>
@@ -2037,32 +2019,41 @@
       <c r="E13" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="G13" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I13" s="14">
+      <c r="H13" s="14">
         <v>0.18917595150823799</v>
       </c>
+      <c r="I13" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="J13" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="K13" s="13" t="s">
         <v>104</v>
       </c>
+      <c r="L13" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" s="17">
+        <v>939.76206666708583</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="O13" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="P13" s="17">
-        <v>939.76206666708583</v>
-      </c>
-      <c r="Q13" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="R13" s="13" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Q13" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="R13" s="22">
+        <v>0.16560240645944377</v>
+      </c>
+      <c r="S13" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B14" s="15" t="s">
         <v>94</v>
       </c>
@@ -2075,32 +2066,32 @@
       <c r="E14" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="G14" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="I14" s="16">
+      <c r="H14" s="16">
         <v>0.22714365651295931</v>
       </c>
+      <c r="I14" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="J14" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="K14" s="15" t="s">
         <v>104</v>
       </c>
+      <c r="L14" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="M14" s="18">
+        <v>1107.3322502269489</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="O14" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="P14" s="18">
-        <v>1107.3322502269489</v>
-      </c>
-      <c r="Q14" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="R14" s="15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B15" s="13" t="s">
         <v>95</v>
       </c>
@@ -2113,32 +2104,32 @@
       <c r="E15" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="G15" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="I15" s="14">
+      <c r="H15" s="14">
         <v>6.9862847461759456E-2</v>
       </c>
+      <c r="I15" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="J15" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="K15" s="13" t="s">
         <v>104</v>
       </c>
+      <c r="L15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="M15" s="17">
+        <v>325.56029944037948</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="O15" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="P15" s="17">
-        <v>325.56029944037948</v>
-      </c>
-      <c r="Q15" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="R15" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B16" s="15" t="s">
         <v>96</v>
       </c>
@@ -2151,32 +2142,32 @@
       <c r="E16" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="G16" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="I16" s="16">
+      <c r="H16" s="16">
         <v>8.6516806360859098E-3</v>
       </c>
+      <c r="I16" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="J16" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="K16" s="15" t="s">
         <v>104</v>
       </c>
+      <c r="L16" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="M16" s="18">
+        <v>39.835401677192912</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="O16" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="P16" s="18">
-        <v>39.835401677192912</v>
-      </c>
-      <c r="Q16" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="R16" s="15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B17" s="13" t="s">
         <v>97</v>
       </c>
@@ -2189,32 +2180,32 @@
       <c r="E17" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="G17" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="I17" s="14">
+      <c r="H17" s="14">
         <v>5.6515711626693527E-2</v>
       </c>
+      <c r="I17" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="J17" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="K17" s="13" t="s">
         <v>104</v>
       </c>
+      <c r="L17" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="M17" s="17">
+        <v>263.21808273630722</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="O17" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="P17" s="17">
-        <v>263.21808273630722</v>
-      </c>
-      <c r="Q17" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="R17" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B18" s="15" t="s">
         <v>98</v>
       </c>
@@ -2227,32 +2218,32 @@
       <c r="E18" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="G18" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="I18" s="16">
+      <c r="H18" s="16">
         <v>6.8102402655022085E-2</v>
       </c>
+      <c r="I18" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="J18" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="K18" s="15" t="s">
         <v>104</v>
       </c>
+      <c r="L18" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="M18" s="18">
+        <v>316.53881921780885</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="O18" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="P18" s="18">
-        <v>316.53881921780885</v>
-      </c>
-      <c r="Q18" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="R18" s="15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B19" s="13" t="s">
         <v>99</v>
       </c>
@@ -2265,32 +2256,32 @@
       <c r="E19" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="G19" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I19" s="14">
+      <c r="H19" s="14">
         <v>4.4111963877289356E-2</v>
       </c>
+      <c r="I19" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="J19" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="K19" s="13" t="s">
         <v>104</v>
       </c>
+      <c r="L19" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M19" s="17">
+        <v>193.08828603826066</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="O19" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="P19" s="17">
-        <v>193.08828603826066</v>
-      </c>
-      <c r="Q19" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="R19" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B20" s="15" t="s">
         <v>100</v>
       </c>
@@ -2303,32 +2294,32 @@
       <c r="E20" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="G20" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I20" s="16">
+      <c r="H20" s="16">
         <v>5.7849962600277742E-3</v>
       </c>
+      <c r="I20" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="J20" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="K20" s="15" t="s">
         <v>104</v>
       </c>
+      <c r="L20" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="M20" s="18">
+        <v>23.958707950812247</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="O20" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="P20" s="18">
-        <v>23.958707950812247</v>
-      </c>
-      <c r="Q20" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="R20" s="15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B21" s="13" t="s">
         <v>101</v>
       </c>
@@ -2341,32 +2332,32 @@
       <c r="E21" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="G21" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="I21" s="14">
+      <c r="H21" s="14">
         <v>3.8357949136617581E-2</v>
       </c>
+      <c r="I21" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="J21" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="K21" s="13" t="s">
         <v>104</v>
       </c>
+      <c r="L21" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="M21" s="17">
+        <v>169.91626083931291</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="O21" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="P21" s="17">
-        <v>169.91626083931291</v>
-      </c>
-      <c r="Q21" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="R21" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B22" s="15" t="s">
         <v>102</v>
       </c>
@@ -2379,28 +2370,28 @@
       <c r="E22" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="G22" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="I22" s="16">
+      <c r="H22" s="16">
         <v>4.4208807614221843E-2</v>
       </c>
+      <c r="I22" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="J22" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="K22" s="15" t="s">
         <v>104</v>
       </c>
+      <c r="L22" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="M22" s="18">
+        <v>191.4949601512603</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="O22" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="P22" s="18">
-        <v>191.4949601512603</v>
-      </c>
-      <c r="Q22" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="R22" s="15" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2414,7 +2405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892D75AF-2E02-4E00-BEDB-5EA7182A41A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC8B201-9EBB-4BD1-86F9-E765CEFC4895}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts12_clu.xlsx
+++ b/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts12_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{776B70DD-7588-478F-A287-AD22D0751AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3331555-62DC-40F4-99C5-BC1ACC3BD76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -369,10 +369,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S3aH2,S1aH3,S3aH3,S2aH2,S1aH2,S2aH3</t>
-  </si>
-  <si>
-    <t>S2aH4,S2aH1,S1aH4,S1aH1,S3aH4,S3aH1</t>
+    <t>S3aH3,S3aH2,S2aH2,S1aH3,S1aH2,S2aH3</t>
+  </si>
+  <si>
+    <t>S3aH1,S1aH4,S1aH1,S3aH4,S2aH1,S2aH4</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -686,7 +686,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68CAE522-8C10-8094-4577-6690CD02CD9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DBDC549-012E-7326-FFDA-7AE4194C35DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH4,S2aH1,S1aH4,S1aH1,S3aH4,S3aH1</v>
+        <v>S3aH1,S1aH4,S1aH1,S3aH4,S2aH1,S2aH4</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S3aH2,S1aH3,S3aH3,S2aH2,S1aH2,S2aH3</v>
+        <v>S3aH3,S3aH2,S2aH2,S1aH3,S1aH2,S2aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1739,7 +1739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6991D6-E039-4361-8B00-73D87F091B97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1AD9D8-C26E-4C9A-BC3E-4CCD6B17860C}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1821,7 +1821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78BAB0DD-0AAD-4A2C-8F71-88EA58A11301}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86C0BDF-A7E5-4D6D-8A86-A94B7360161E}">
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1997,10 +1997,10 @@
         <v>105</v>
       </c>
       <c r="Q12" s="23" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="R12" s="24">
-        <v>0.95029816876880024</v>
+        <v>0.16560240645944377</v>
       </c>
       <c r="S12" s="23" t="s">
         <v>117</v>
@@ -2044,10 +2044,10 @@
         <v>105</v>
       </c>
       <c r="Q13" s="21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="R13" s="22">
-        <v>0.16560240645944377</v>
+        <v>0.95029816876880036</v>
       </c>
       <c r="S13" s="21" t="s">
         <v>117</v>
@@ -2405,7 +2405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC8B201-9EBB-4BD1-86F9-E765CEFC4895}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4B42F7-C975-43AE-AADE-7633B98ED4F1}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts12_clu.xlsx
+++ b/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts12_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3331555-62DC-40F4-99C5-BC1ACC3BD76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80571586-B769-4492-BC4C-0F58BF3192CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -369,10 +369,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S3aH3,S3aH2,S2aH2,S1aH3,S1aH2,S2aH3</t>
-  </si>
-  <si>
-    <t>S3aH1,S1aH4,S1aH1,S3aH4,S2aH1,S2aH4</t>
+    <t>S2aH2,S3aH3,S1aH2,S2aH3,S1aH3,S3aH2</t>
+  </si>
+  <si>
+    <t>S2aH1,S2aH4,S3aH1,S1aH4,S1aH1,S3aH4</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -686,7 +686,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DBDC549-012E-7326-FFDA-7AE4194C35DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02337520-7182-CFF1-E972-F2EBE0146B16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S3aH1,S1aH4,S1aH1,S3aH4,S2aH1,S2aH4</v>
+        <v>S2aH1,S2aH4,S3aH1,S1aH4,S1aH1,S3aH4</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S3aH3,S3aH2,S2aH2,S1aH3,S1aH2,S2aH3</v>
+        <v>S2aH2,S3aH3,S1aH2,S2aH3,S1aH3,S3aH2</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1739,7 +1739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1AD9D8-C26E-4C9A-BC3E-4CCD6B17860C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E640C5C6-A5B6-45ED-9F3F-F31B2E815D62}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1821,7 +1821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86C0BDF-A7E5-4D6D-8A86-A94B7360161E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB66BE1-6FF4-49DF-B331-D0858AAB4DD8}">
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2405,7 +2405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4B42F7-C975-43AE-AADE-7633B98ED4F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B30B77-2F7C-42E7-8BDD-92CB6D1AF339}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts12_clu.xlsx
+++ b/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts12_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80571586-B769-4492-BC4C-0F58BF3192CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4987EB72-DED6-4A9E-AE19-481A448B1CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -369,10 +369,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S2aH2,S3aH3,S1aH2,S2aH3,S1aH3,S3aH2</t>
-  </si>
-  <si>
-    <t>S2aH1,S2aH4,S3aH1,S1aH4,S1aH1,S3aH4</t>
+    <t>S1aH3,S2aH2,S3aH2,S1aH2,S2aH3,S3aH3</t>
+  </si>
+  <si>
+    <t>S2aH1,S1aH1,S3aH4,S2aH4,S3aH1,S1aH4</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -400,9 +400,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -610,7 +609,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -632,8 +631,6 @@
     <xf numFmtId="164" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -686,7 +683,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02337520-7182-CFF1-E972-F2EBE0146B16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{500B8921-AF56-63C4-85CD-EAED7BA3184F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1094,7 +1091,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH1,S2aH4,S3aH1,S1aH4,S1aH1,S3aH4</v>
+        <v>S2aH1,S1aH1,S3aH4,S2aH4,S3aH1,S1aH4</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1126,7 +1123,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S2aH2,S3aH3,S1aH2,S2aH3,S1aH3,S3aH2</v>
+        <v>S1aH3,S2aH2,S3aH2,S1aH2,S2aH3,S3aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1739,7 +1736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E640C5C6-A5B6-45ED-9F3F-F31B2E815D62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01CCCA2-9666-4878-A6F5-58AED1A84E45}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1821,7 +1818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB66BE1-6FF4-49DF-B331-D0858AAB4DD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE88C2D-D20D-47CE-BA7E-EDD52793524D}">
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1840,16 +1837,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="9" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="11" t="s">
@@ -1902,13 +1899,13 @@
       <c r="O10" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="Q10" s="20" t="s">
+      <c r="Q10" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="R10" s="20" t="s">
+      <c r="R10" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="S10" s="20" t="s">
+      <c r="S10" s="18" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1940,8 +1937,8 @@
       <c r="L11" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="M11" s="17">
-        <v>1054.6815478022845</v>
+      <c r="M11" s="14">
+        <v>0.22051110595637008</v>
       </c>
       <c r="N11" s="13" t="s">
         <v>90</v>
@@ -1949,13 +1946,13 @@
       <c r="O11" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="Q11" s="21" t="s">
+      <c r="Q11" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="R11" s="22">
+      <c r="R11" s="20">
         <v>8.4099424771755762E-2</v>
       </c>
-      <c r="S11" s="21" t="s">
+      <c r="S11" s="19" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1987,8 +1984,8 @@
       <c r="L12" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="M12" s="18">
-        <v>130.12874369322392</v>
+      <c r="M12" s="16">
+        <v>2.7005130993325931E-2</v>
       </c>
       <c r="N12" s="15" t="s">
         <v>90</v>
@@ -1996,13 +1993,13 @@
       <c r="O12" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="Q12" s="23" t="s">
+      <c r="Q12" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="R12" s="24">
+      <c r="R12" s="22">
         <v>0.16560240645944377</v>
       </c>
-      <c r="S12" s="23" t="s">
+      <c r="S12" s="21" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2034,8 +2031,8 @@
       <c r="L13" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="M13" s="17">
-        <v>939.76206666708583</v>
+      <c r="M13" s="14">
+        <v>0.19550712264392731</v>
       </c>
       <c r="N13" s="13" t="s">
         <v>90</v>
@@ -2043,13 +2040,13 @@
       <c r="O13" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="Q13" s="21" t="s">
+      <c r="Q13" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="R13" s="22">
+      <c r="R13" s="20">
         <v>0.95029816876880036</v>
       </c>
-      <c r="S13" s="21" t="s">
+      <c r="S13" s="19" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2081,8 +2078,8 @@
       <c r="L14" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="M14" s="18">
-        <v>1107.3322502269489</v>
+      <c r="M14" s="16">
+        <v>0.23085918579945908</v>
       </c>
       <c r="N14" s="15" t="s">
         <v>90</v>
@@ -2119,8 +2116,8 @@
       <c r="L15" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="M15" s="17">
-        <v>325.56029944037948</v>
+      <c r="M15" s="14">
+        <v>6.9107708417194796E-2</v>
       </c>
       <c r="N15" s="13" t="s">
         <v>90</v>
@@ -2157,8 +2154,8 @@
       <c r="L16" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="M16" s="18">
-        <v>39.835401677192912</v>
+      <c r="M16" s="16">
+        <v>8.4581681043188073E-3</v>
       </c>
       <c r="N16" s="15" t="s">
         <v>90</v>
@@ -2195,8 +2192,8 @@
       <c r="L17" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="M17" s="17">
-        <v>263.21808273630722</v>
+      <c r="M17" s="14">
+        <v>5.592609458618885E-2</v>
       </c>
       <c r="N17" s="13" t="s">
         <v>90</v>
@@ -2233,8 +2230,8 @@
       <c r="L18" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="M18" s="18">
-        <v>316.53881921780885</v>
+      <c r="M18" s="16">
+        <v>6.6776091243659561E-2</v>
       </c>
       <c r="N18" s="15" t="s">
         <v>90</v>
@@ -2271,8 +2268,8 @@
       <c r="L19" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="M19" s="17">
-        <v>193.08828603826066</v>
+      <c r="M19" s="14">
+        <v>4.1992181052798866E-2</v>
       </c>
       <c r="N19" s="13" t="s">
         <v>90</v>
@@ -2309,8 +2306,8 @@
       <c r="L20" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="M20" s="18">
-        <v>23.958707950812247</v>
+      <c r="M20" s="16">
+        <v>5.3335867092306685E-3</v>
       </c>
       <c r="N20" s="15" t="s">
         <v>90</v>
@@ -2347,8 +2344,8 @@
       <c r="L21" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="M21" s="17">
-        <v>169.91626083931291</v>
+      <c r="M21" s="14">
+        <v>3.7038344289336139E-2</v>
       </c>
       <c r="N21" s="13" t="s">
         <v>90</v>
@@ -2385,8 +2382,8 @@
       <c r="L22" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="M22" s="18">
-        <v>191.4949601512603</v>
+      <c r="M22" s="16">
+        <v>4.1485280203954977E-2</v>
       </c>
       <c r="N22" s="15" t="s">
         <v>90</v>
@@ -2405,7 +2402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B30B77-2F7C-42E7-8BDD-92CB6D1AF339}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B663001-7859-4695-9A32-71AB074AB9F7}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
